--- a/extensions/receipt/template_receipt.xlsx
+++ b/extensions/receipt/template_receipt.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\derm-sys\extensions\receipt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65FC63E-3E79-42BC-B720-BD9DE3FB679D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C29CAC-0C8F-403A-8B6A-F57D06ED1D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E92290E-C0B9-4F09-B088-68AA275C064C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">   ឈ្មោះ</t>
+  </si>
   <si>
     <t>អាយុ</t>
   </si>
@@ -33,56 +31,55 @@
     <t>ភេទ</t>
   </si>
   <si>
-    <t xml:space="preserve">   ឈ្មោះ</t>
-  </si>
-  <si>
     <t xml:space="preserve">   រោគវិនិច្ឆ័យ</t>
   </si>
   <si>
-    <t>a</t>
+    <t>កាលបរិច្ឆេទ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Khmer OS"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Khmer OS"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Khmer OS"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Khmer OS"/>
     </font>
   </fonts>
@@ -106,17 +103,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -125,19 +119,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -146,7 +140,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -160,25 +154,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>178741</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3886200" cy="1438275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="2" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DA67B7-65C5-456E-96B7-FEB2CE799A15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -194,8 +183,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="381000"/>
-          <a:ext cx="3609975" cy="1436041"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -203,26 +192,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>94489</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>146151</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5181600" cy="47625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
+        <xdr:cNvPr id="3" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01FA9FA-E7F9-4002-9A38-EC8EF7216399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -238,8 +222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="2247139"/>
-          <a:ext cx="5181600" cy="51662"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -247,26 +231,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95310</xdr:rowOff>
+      <xdr:rowOff>295341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6A7530-BB0E-426A-BC28-7D1392518063}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCC049C-26E7-492E-8CAC-5AB3976C0851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -282,8 +266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="2390775"/>
-          <a:ext cx="4191000" cy="428685"/>
+          <a:off x="180976" y="1952625"/>
+          <a:ext cx="3714750" cy="476316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -306,44 +290,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -371,31 +355,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -423,23 +390,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,340 +401,362 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA39D3A-3989-4C47-BAF2-09D1838DEC4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="7"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="5"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A3" s="6"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A4" s="4"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="B5" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.8">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
-        <v>0</v>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.8">
+      <c r="A10" s="13" t="s">
+        <v>3</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="12" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.8">
-      <c r="A10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17" s="11"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.8">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A25" s="11"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/extensions/receipt/template_receipt.xlsx
+++ b/extensions/receipt/template_receipt.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\derm-sys\extensions\receipt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C29CAC-0C8F-403A-8B6A-F57D06ED1D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8170E3BA-E959-441D-9DA4-3FBEF7AC0ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -132,9 +132,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,25 +230,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>295341</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3714750" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="4" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCC049C-26E7-492E-8CAC-5AB3976C0851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -266,8 +259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180976" y="1952625"/>
-          <a:ext cx="3714750" cy="476316"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -275,7 +268,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -569,12 +562,14 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.75">
@@ -604,8 +599,7 @@
       <c r="C9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="9"/>
@@ -621,9 +615,7 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A11" s="11">
-        <v>1</v>
-      </c>
+      <c r="A11" s="11"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -752,9 +744,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="B10:F10"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/extensions/receipt/template_receipt.xlsx
+++ b/extensions/receipt/template_receipt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\derm-sys\extensions\receipt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8170E3BA-E959-441D-9DA4-3FBEF7AC0ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA591641-2A55-4779-8681-BF7876B35EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,20 +152,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3886200" cy="1438275"/>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 11">
+        <xdr:cNvPr id="3" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -181,8 +186,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="361950" y="1876425"/>
+          <a:ext cx="5181600" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -190,50 +195,11 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5181600" cy="47625"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
@@ -252,15 +218,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="466725" y="1952625"/>
+          <a:ext cx="3714750" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -269,6 +235,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A289E73-AA1C-46CF-BDE9-8507BF97CF4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="457201"/>
+          <a:ext cx="3857625" cy="1165324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -562,7 +578,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.75"/>

--- a/extensions/receipt/template_receipt.xlsx
+++ b/extensions/receipt/template_receipt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\derm-sys\extra\reciept\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\derm-sys\extensions\receipt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC21982-602E-42BC-AE2D-3255A0BFACE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49637634-3E7F-496F-AC66-E4C3D076B9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92C1AD3C-3FA8-4E46-9F3D-06E0947165E9}"/>
+    <workbookView xWindow="5430" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{92C1AD3C-3FA8-4E46-9F3D-06E0947165E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">   ឈ្មោះ</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t xml:space="preserve">   រោគវិនិច្ឆ័យ</t>
-  </si>
-  <si>
-    <t>ថ្ងៃទី</t>
-  </si>
-  <si>
-    <t>ខែ</t>
-  </si>
-  <si>
-    <t>ឆ្នាំ</t>
   </si>
   <si>
     <t>ល.រ​​​ 
@@ -81,12 +72,15 @@
     <t>ផ្សេងៗ
 Comments</t>
   </si>
+  <si>
+    <t>កាលបរិច្ឆេទ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +111,11 @@
       <color theme="1"/>
       <name val="Khmer OS"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Khmer OS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,26 +240,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,31 +301,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,25 +326,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>61183</xdr:rowOff>
+      <xdr:rowOff>164276</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05ADFEEA-0803-4338-9BA4-BDF201C902C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E12DFA-17A9-4290-9020-967EBB183C37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -343,7 +352,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -351,13 +360,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="3116" r="1250"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9524"/>
-          <a:ext cx="4638674" cy="2051909"/>
+          <a:off x="19050" y="0"/>
+          <a:ext cx="4629150" cy="2164526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,10 +679,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A8:G26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.8"/>
@@ -681,200 +691,256 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="G7" s="4"/>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="A23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A24" s="12"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:G25"/>
     <mergeCell ref="B9:G9"/>
@@ -890,12 +956,9 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A1:G6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B8:C8"/>
@@ -905,6 +968,10 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
